--- a/paper-dataset.xlsx
+++ b/paper-dataset.xlsx
@@ -8,26 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MaNdO\Desktop\dyslaxia and music notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437775FA-56B7-4CE2-987D-BBCA84B1D158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFED797-ABB9-41A4-9173-59BD58891882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample stats." sheetId="1" r:id="rId1"/>
     <sheet name="Test conditions" sheetId="2" r:id="rId2"/>
     <sheet name="student prefrences" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="43">
   <si>
     <t>dyslexic students</t>
   </si>
@@ -153,6 +164,9 @@
   </si>
   <si>
     <t xml:space="preserve">std in number of mistakes </t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -476,16 +490,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.21875" customWidth="1"/>
     <col min="6" max="6" width="9.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -638,6 +653,19 @@
       </c>
       <c r="L4">
         <v>9.41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <f>SUM(B2:B4)</f>
+        <v>72</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="C5:L5" si="0">SUM(G2:G4)</f>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -649,7 +677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8D3707-D7CF-486B-B683-4158FA2E6094}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -1244,7 +1272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD5E95C-4157-4C3D-9AC4-CD126BD2F60D}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
